--- a/Assets/ERang/Excels/RewardSetData.xlsx
+++ b/Assets/ERang/Excels/RewardSetData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2C3281-3132-4231-B3BD-19B76F463890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="1560" windowWidth="38070" windowHeight="19365" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -24,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>CardGrade</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>#NameDesc</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -59,13 +56,37 @@
   </si>
   <si>
     <t>전설 비중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isOnce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 비중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 비중</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -104,7 +125,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,6 +135,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -145,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -155,6 +182,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -504,11 +537,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -521,48 +554,82 @@
     <col min="6" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25">
+    <row r="1" spans="1:4" ht="17.25">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="4">
         <v>800</v>
       </c>
+      <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="17.25">
+    <row r="3" spans="1:4" ht="17.25">
       <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="C3" s="4">
         <v>150</v>
       </c>
+      <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="17.25">
+    <row r="4" spans="1:4" ht="17.25">
       <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="C4" s="4">
         <v>50</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="17.25">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6">
+        <v>800</v>
+      </c>
+      <c r="D5" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6">
+        <v>300</v>
+      </c>
+      <c r="D6" s="6" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ERang/Excels/RewardSetData.xlsx
+++ b/Assets/ERang/Excels/RewardSetData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2C3281-3132-4231-B3BD-19B76F463890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F959041D-E921-4E11-9CB3-61E0FA8C019F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>#NameDesc</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -80,6 +80,14 @@
   </si>
   <si>
     <t>체력 비중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -538,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -549,12 +557,13 @@
     <col min="1" max="1" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="1"/>
+    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25">
+    <row r="1" spans="1:5" ht="17.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -565,10 +574,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25">
+    <row r="2" spans="1:5" ht="17.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -578,9 +590,12 @@
       <c r="C2" s="4">
         <v>800</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="17.25">
+    <row r="3" spans="1:5" ht="17.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -590,9 +605,12 @@
       <c r="C3" s="4">
         <v>150</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:4" ht="17.25">
+    <row r="4" spans="1:5" ht="17.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -602,9 +620,12 @@
       <c r="C4" s="4">
         <v>50</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="17.25">
+    <row r="5" spans="1:5" ht="17.25">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -614,11 +635,14 @@
       <c r="C5" s="6">
         <v>800</v>
       </c>
-      <c r="D5" s="6" t="b">
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.25">
+    <row r="6" spans="1:5" ht="17.25">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -628,7 +652,10 @@
       <c r="C6" s="6">
         <v>300</v>
       </c>
-      <c r="D6" s="6" t="b">
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Assets/ERang/Excels/RewardSetData.xlsx
+++ b/Assets/ERang/Excels/RewardSetData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shpapa\Desktop\repo\Assets\ERang\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F959041D-E921-4E11-9CB3-61E0FA8C019F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEB4339-040B-4AFF-BB52-0F8C46E78057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="63540" yWindow="2655" windowWidth="20370" windowHeight="17430" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -549,21 +549,21 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="45" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25">
+    <row r="1" spans="1:5" ht="17.5">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -580,7 +580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25">
+    <row r="2" spans="1:5" ht="17.5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -593,9 +593,11 @@
       <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="17.25">
+    <row r="3" spans="1:5" ht="17.5">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -608,9 +610,11 @@
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="17.25">
+    <row r="4" spans="1:5" ht="17.5">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -623,9 +627,11 @@
       <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="17.25">
+    <row r="5" spans="1:5" ht="17.5">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -642,7 +648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17.25">
+    <row r="6" spans="1:5" ht="17.5">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>

--- a/Assets/ERang/Excels/RewardSetData.xlsx
+++ b/Assets/ERang/Excels/RewardSetData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\repo\Assets\ERang\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEB4339-040B-4AFF-BB52-0F8C46E78057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D9CA5E-FB8D-41FB-89CF-C6C702F81139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63540" yWindow="2655" windowWidth="20370" windowHeight="17430" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="66810" yWindow="2955" windowWidth="23220" windowHeight="17430" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>#NameDesc</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -83,11 +83,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Card</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardGrade</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -549,15 +549,15 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="16.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="45" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.75" style="1"/>
@@ -568,13 +568,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>9</v>
@@ -582,16 +582,16 @@
     </row>
     <row r="2" spans="1:5" ht="17.5">
       <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>800</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E2" s="4" t="b">
         <v>0</v>
@@ -599,16 +599,16 @@
     </row>
     <row r="3" spans="1:5" ht="17.5">
       <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="4">
         <v>150</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E3" s="4" t="b">
         <v>0</v>
@@ -616,16 +616,16 @@
     </row>
     <row r="4" spans="1:5" ht="17.5">
       <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="4">
         <v>50</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E4" s="4" t="b">
         <v>0</v>
@@ -635,14 +635,12 @@
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6">
+      <c r="D5" s="6">
         <v>800</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="E5" s="6" t="b">
         <v>1</v>
@@ -652,14 +650,12 @@
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6">
+      <c r="D6" s="6">
         <v>300</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="E6" s="6" t="b">
         <v>1</v>
